--- a/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/sslb_vorlage.xlsx
+++ b/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/sslb_vorlage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws-intern\PlanPro-Git\eclipse-set\java\bundles\org.eclipse.set.feature\rootdir\data\export\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse\SBIDER-2023-12\eclipse\data\export\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D964833-F1E9-4930-B7E2-9AFAF0E96F4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB67A110-184D-4688-A1BD-CD0ABE8D2F1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="32760" windowWidth="23085" windowHeight="3705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sslb_Beispielbefüllung" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sslb_Beispielbefüllung!$A$1:$Y$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sslb_Beispielbefüllung!$A$1:$Z$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sslb_Beispielbefüllung!$A:$B,Sslb_Beispielbefüllung!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>A</t>
   </si>
@@ -154,10 +154,6 @@
   </si>
   <si>
     <t>Bezeichnung (Bedienung von)</t>
-  </si>
-  <si>
-    <t>Strecken-
-ziel</t>
   </si>
   <si>
     <t>W</t>
@@ -198,6 +194,19 @@
   <si>
     <t>Rückblock-
 wecker</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Regel-/Gegengleis</t>
+  </si>
+  <si>
+    <t>Streckenziel</t>
+  </si>
+  <si>
+    <t>Strecken-
+freimeldung</t>
   </si>
 </sst>
 </file>
@@ -618,7 +627,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -689,6 +698,18 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -707,12 +728,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -728,16 +743,16 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1091,44 +1106,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BF7"/>
+  <dimension ref="A1:BG7"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="10.35" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="10.35" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="7" style="4" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.42578125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" style="4" customWidth="1"/>
-    <col min="15" max="16" width="7.42578125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="8.5703125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="9" style="4" customWidth="1"/>
-    <col min="21" max="21" width="8.42578125" style="4" customWidth="1"/>
-    <col min="22" max="22" width="6.42578125" style="4" customWidth="1"/>
-    <col min="23" max="23" width="7" style="4" customWidth="1"/>
-    <col min="24" max="24" width="9.5703125" style="4" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" style="4" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" style="4"/>
-    <col min="27" max="27" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.42578125" style="4"/>
+    <col min="5" max="5" width="7.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="7" style="4" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" style="4" customWidth="1"/>
+    <col min="11" max="12" width="7.42578125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" style="4" customWidth="1"/>
+    <col min="16" max="17" width="7.42578125" style="4" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" style="4" customWidth="1"/>
+    <col min="20" max="20" width="7.42578125" style="4" customWidth="1"/>
+    <col min="21" max="21" width="8" style="4" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="4" customWidth="1"/>
+    <col min="23" max="23" width="6.42578125" style="4" customWidth="1"/>
+    <col min="24" max="24" width="7" style="4" customWidth="1"/>
+    <col min="25" max="25" width="9.5703125" style="4" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" style="4" customWidth="1"/>
+    <col min="27" max="27" width="11.42578125" style="4"/>
+    <col min="28" max="28" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="10" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:59" s="10" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -1166,44 +1181,46 @@
       <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="9" t="s">
         <v>14</v>
       </c>
       <c r="O1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="W1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="X1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="Y1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
+      <c r="Z1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA1" s="9"/>
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
@@ -1235,190 +1252,197 @@
       <c r="BD1" s="4"/>
       <c r="BE1" s="4"/>
       <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
     </row>
-    <row r="2" spans="1:58" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="33" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="24" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
-      <c r="R2" s="32" t="s">
+      <c r="R2" s="40"/>
+      <c r="S2" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="24" t="s">
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="25"/>
-      <c r="X2" s="11" t="s">
+      <c r="X2" s="29"/>
+      <c r="Y2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="Y2" s="12" t="s">
+      <c r="Z2" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="G3" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="42"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="42"/>
+      <c r="L3" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="N3" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="30" t="s">
+      <c r="R3" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" s="38"/>
+      <c r="U3" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="Q3" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="S3" s="36"/>
-      <c r="T3" s="30" t="s">
+      <c r="V3" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="U3" s="28" t="s">
+      <c r="W3" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="V3" s="26" t="s">
+      <c r="X3" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="W3" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="X3" s="41" t="s">
+      <c r="Y3" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
     </row>
-    <row r="4" spans="1:58" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="33"/>
       <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="1" t="s">
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="31"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="7"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="7"/>
     </row>
-    <row r="5" spans="1:58" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="13"/>
       <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="14"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="16"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="13"/>
       <c r="T5" s="14"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="18"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="18"/>
     </row>
-    <row r="6" spans="1:58" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="20"/>
       <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
       <c r="J6" s="21"/>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
@@ -1435,16 +1459,17 @@
       <c r="W6" s="20"/>
       <c r="X6" s="20"/>
       <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
     </row>
-    <row r="7" spans="1:58" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:59" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
-      <c r="E7" s="23"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="22"/>
       <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="23"/>
       <c r="J7" s="23"/>
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
@@ -1461,32 +1486,34 @@
       <c r="W7" s="22"/>
       <c r="X7" s="22"/>
       <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="X3:X4"/>
+  <mergeCells count="24">
+    <mergeCell ref="Y3:Y4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="L3:L4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="R3:R4"/>
     <mergeCell ref="M3:M4"/>
-    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="U3:U4"/>
     <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:M2"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.19685039370078741" bottom="0.59055118110236227" header="0" footer="0"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>

--- a/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/sslb_vorlage.xlsx
+++ b/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/sslb_vorlage.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,18 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse\SBIDER-2023-12\eclipse\data\export\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB67A110-184D-4688-A1BD-CD0ABE8D2F1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3FD0EFB1-DEFC-421E-929D-E7F60CBAEA2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="23085" windowHeight="3705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="15825"/>
   </bookViews>
   <sheets>
-    <sheet name="Sslb_Beispielbefüllung" sheetId="4" r:id="rId1"/>
+    <sheet name="Sslb" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sslb_Beispielbefüllung!$A$1:$Z$7</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sslb_Beispielbefüllung!$A:$B,Sslb_Beispielbefüllung!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sslb!$A$1:$Z$55</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sslb!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:Single"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -86,15 +93,21 @@
     <t>Betriebsführung</t>
   </si>
   <si>
-    <t>Holen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rücklauf automatisch </t>
+    <t>Abgabe-speicherung</t>
+  </si>
+  <si>
+    <t>Abhängigkeit Durchrutschweg/ Rangierzielsperre</t>
   </si>
   <si>
     <t>Anrückabschnitt</t>
   </si>
   <si>
+    <t>Zugschluss-meldung</t>
+  </si>
+  <si>
+    <t>Räumungs-prüfung</t>
+  </si>
+  <si>
     <t>Anordnung</t>
   </si>
   <si>
@@ -104,6 +117,12 @@
     <t>Akustische Meldung</t>
   </si>
   <si>
+    <t>Vorblock-wecker</t>
+  </si>
+  <si>
+    <t>Rückblock-wecker</t>
+  </si>
+  <si>
     <t>Awanst</t>
   </si>
   <si>
@@ -128,10 +147,6 @@
     <t>Bemerkung</t>
   </si>
   <si>
-    <t>Abhängigkeit Durchrutschweg/
-Rangierzielsperre</t>
-  </si>
-  <si>
     <t>U</t>
   </si>
   <si>
@@ -150,69 +165,53 @@
     <t>Von</t>
   </si>
   <si>
+    <t>Betriebs-stelle</t>
+  </si>
+  <si>
     <t>Nach</t>
   </si>
   <si>
     <t>Bezeichnung (Bedienung von)</t>
   </si>
   <si>
+    <t>Schutz-über-trager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block-schaltung
+</t>
+  </si>
+  <si>
+    <t>Strecken-
+ziel</t>
+  </si>
+  <si>
     <t>W</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>Betriebs-
-stelle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Block-
-schaltung
-</t>
-  </si>
-  <si>
-    <t>Schutz-
-über-
-trager</t>
-  </si>
-  <si>
-    <t>Abgabe-
-speicherung</t>
-  </si>
-  <si>
-    <t>Zugschluss-
-meldung</t>
-  </si>
-  <si>
-    <t>Räumungs-
-prüfung</t>
-  </si>
-  <si>
-    <t>Vorblock-
-wecker</t>
-  </si>
-  <si>
-    <t>Rückblock-
-wecker</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Regel-/Gegengleis</t>
-  </si>
-  <si>
-    <t>Streckenziel</t>
+    <t>Regel-/
+Gegengleis</t>
   </si>
   <si>
     <t>Strecken-
 freimeldung</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Holen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rücklauf autom. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -252,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -283,6 +282,171 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -295,24 +459,11 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -322,22 +473,7 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -350,142 +486,16 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -506,91 +516,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -627,7 +552,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -635,7 +560,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -644,25 +569,76 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -671,26 +647,32 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -698,79 +680,13 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Standard 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1105,41 +1021,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BG55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="10.35" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="7" style="4" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" style="4" customWidth="1"/>
-    <col min="11" max="12" width="7.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="4" customWidth="1"/>
     <col min="13" max="13" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="5.42578125" style="4" customWidth="1"/>
-    <col min="16" max="17" width="7.42578125" style="4" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="8.7109375" style="4" customWidth="1"/>
-    <col min="20" max="20" width="7.42578125" style="4" customWidth="1"/>
-    <col min="21" max="21" width="8" style="4" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="4" customWidth="1"/>
-    <col min="23" max="23" width="6.42578125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="5.28515625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="8" style="4" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" style="4" customWidth="1"/>
+    <col min="19" max="22" width="8.28515625" style="4" customWidth="1"/>
+    <col min="23" max="23" width="6.28515625" style="4" customWidth="1"/>
     <col min="24" max="24" width="7" style="4" customWidth="1"/>
     <col min="25" max="25" width="9.5703125" style="4" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" style="4" customWidth="1"/>
+    <col min="26" max="26" width="8.28515625" style="4" customWidth="1"/>
     <col min="27" max="27" width="11.42578125" style="4"/>
-    <col min="28" max="28" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
@@ -1184,43 +1099,43 @@
       <c r="N1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>29</v>
+      <c r="P1" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="U1" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="V1" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="35" t="s">
         <v>35</v>
       </c>
+      <c r="U1" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="W1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y1" s="19" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="X1" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y1" s="35" t="s">
+        <v>51</v>
       </c>
       <c r="Z1" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" s="9"/>
+        <v>54</v>
+      </c>
+      <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
@@ -1256,240 +1171,1586 @@
     </row>
     <row r="2" spans="1:59" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="35" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="28" t="s">
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="X2" s="29"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2" s="15"/>
       <c r="Y2" s="11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Z2" s="12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="24" t="s">
+      <c r="D3" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="27"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="27"/>
+      <c r="L3" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="42"/>
-      <c r="L3" s="26" t="s">
+      <c r="P3" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" s="26"/>
+      <c r="U3" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="V3" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="W3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="X3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y3" s="31" t="s">
         <v>46</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="R3" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="T3" s="38"/>
-      <c r="U3" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="V3" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="W3" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="X3" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y3" s="43" t="s">
-        <v>42</v>
       </c>
       <c r="Z3" s="6"/>
     </row>
     <row r="4" spans="1:59" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="33"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="19"/>
       <c r="G4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="27"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="46"/>
+        <v>41</v>
+      </c>
+      <c r="L4" s="21"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="34"/>
       <c r="S4" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="U4" s="27"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="44"/>
+        <v>25</v>
+      </c>
+      <c r="U4" s="21"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="32"/>
       <c r="Z4" s="7"/>
     </row>
     <row r="5" spans="1:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="18"/>
-    </row>
-    <row r="6" spans="1:59" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-    </row>
-    <row r="7" spans="1:59" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="13"/>
+    </row>
+    <row r="6" spans="1:59" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="41"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+    </row>
+    <row r="7" spans="1:59" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="41"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+    </row>
+    <row r="8" spans="1:59" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="41"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="41"/>
+    </row>
+    <row r="9" spans="1:59" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="41"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41"/>
+    </row>
+    <row r="10" spans="1:59" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="41"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="41"/>
+    </row>
+    <row r="11" spans="1:59" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="41"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="41"/>
+    </row>
+    <row r="12" spans="1:59" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="41"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="41"/>
+    </row>
+    <row r="13" spans="1:59" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="41"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+    </row>
+    <row r="14" spans="1:59" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="41"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
+    </row>
+    <row r="15" spans="1:59" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="41"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="41"/>
+    </row>
+    <row r="16" spans="1:59" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
+    </row>
+    <row r="17" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="41"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+    </row>
+    <row r="18" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
+    </row>
+    <row r="19" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="41"/>
+      <c r="X19" s="41"/>
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="41"/>
+    </row>
+    <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="41"/>
+    </row>
+    <row r="21" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="41"/>
+    </row>
+    <row r="22" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="41"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="41"/>
+    </row>
+    <row r="23" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="41"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="41"/>
+    </row>
+    <row r="24" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="41"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="41"/>
+      <c r="Z24" s="41"/>
+    </row>
+    <row r="25" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="41"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="41"/>
+      <c r="X25" s="41"/>
+      <c r="Y25" s="41"/>
+      <c r="Z25" s="41"/>
+    </row>
+    <row r="26" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="41"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="41"/>
+      <c r="X26" s="41"/>
+      <c r="Y26" s="41"/>
+      <c r="Z26" s="41"/>
+    </row>
+    <row r="27" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="41"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="41"/>
+      <c r="Z27" s="41"/>
+    </row>
+    <row r="28" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="41"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="41"/>
+      <c r="V28" s="41"/>
+      <c r="W28" s="41"/>
+      <c r="X28" s="41"/>
+      <c r="Y28" s="41"/>
+      <c r="Z28" s="41"/>
+    </row>
+    <row r="29" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="41"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="41"/>
+      <c r="W29" s="41"/>
+      <c r="X29" s="41"/>
+      <c r="Y29" s="41"/>
+      <c r="Z29" s="41"/>
+    </row>
+    <row r="30" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="41"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="41"/>
+      <c r="V30" s="41"/>
+      <c r="W30" s="41"/>
+      <c r="X30" s="41"/>
+      <c r="Y30" s="41"/>
+      <c r="Z30" s="41"/>
+    </row>
+    <row r="31" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="41"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="41"/>
+      <c r="W31" s="41"/>
+      <c r="X31" s="41"/>
+      <c r="Y31" s="41"/>
+      <c r="Z31" s="41"/>
+    </row>
+    <row r="32" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="41"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="41"/>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="41"/>
+      <c r="Z32" s="41"/>
+    </row>
+    <row r="33" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="41"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="41"/>
+      <c r="V33" s="41"/>
+      <c r="W33" s="41"/>
+      <c r="X33" s="41"/>
+      <c r="Y33" s="41"/>
+      <c r="Z33" s="41"/>
+    </row>
+    <row r="34" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="41"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="41"/>
+      <c r="T34" s="41"/>
+      <c r="U34" s="41"/>
+      <c r="V34" s="41"/>
+      <c r="W34" s="41"/>
+      <c r="X34" s="41"/>
+      <c r="Y34" s="41"/>
+      <c r="Z34" s="41"/>
+    </row>
+    <row r="35" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="41"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="41"/>
+      <c r="V35" s="41"/>
+      <c r="W35" s="41"/>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="41"/>
+      <c r="Z35" s="41"/>
+    </row>
+    <row r="36" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="41"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="41"/>
+      <c r="S36" s="41"/>
+      <c r="T36" s="41"/>
+      <c r="U36" s="41"/>
+      <c r="V36" s="41"/>
+      <c r="W36" s="41"/>
+      <c r="X36" s="41"/>
+      <c r="Y36" s="41"/>
+      <c r="Z36" s="41"/>
+    </row>
+    <row r="37" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="41"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="41"/>
+      <c r="S37" s="41"/>
+      <c r="T37" s="41"/>
+      <c r="U37" s="41"/>
+      <c r="V37" s="41"/>
+      <c r="W37" s="41"/>
+      <c r="X37" s="41"/>
+      <c r="Y37" s="41"/>
+      <c r="Z37" s="41"/>
+    </row>
+    <row r="38" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="41"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="41"/>
+      <c r="S38" s="41"/>
+      <c r="T38" s="41"/>
+      <c r="U38" s="41"/>
+      <c r="V38" s="41"/>
+      <c r="W38" s="41"/>
+      <c r="X38" s="41"/>
+      <c r="Y38" s="41"/>
+      <c r="Z38" s="41"/>
+    </row>
+    <row r="39" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="41"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="41"/>
+      <c r="V39" s="41"/>
+      <c r="W39" s="41"/>
+      <c r="X39" s="41"/>
+      <c r="Y39" s="41"/>
+      <c r="Z39" s="41"/>
+    </row>
+    <row r="40" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="41"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="41"/>
+      <c r="S40" s="41"/>
+      <c r="T40" s="41"/>
+      <c r="U40" s="41"/>
+      <c r="V40" s="41"/>
+      <c r="W40" s="41"/>
+      <c r="X40" s="41"/>
+      <c r="Y40" s="41"/>
+      <c r="Z40" s="41"/>
+    </row>
+    <row r="41" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="41"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="41"/>
+      <c r="S41" s="41"/>
+      <c r="T41" s="41"/>
+      <c r="U41" s="41"/>
+      <c r="V41" s="41"/>
+      <c r="W41" s="41"/>
+      <c r="X41" s="41"/>
+      <c r="Y41" s="41"/>
+      <c r="Z41" s="41"/>
+    </row>
+    <row r="42" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="41"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="41"/>
+      <c r="S42" s="41"/>
+      <c r="T42" s="41"/>
+      <c r="U42" s="41"/>
+      <c r="V42" s="41"/>
+      <c r="W42" s="41"/>
+      <c r="X42" s="41"/>
+      <c r="Y42" s="41"/>
+      <c r="Z42" s="41"/>
+    </row>
+    <row r="43" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="41"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="41"/>
+      <c r="S43" s="41"/>
+      <c r="T43" s="41"/>
+      <c r="U43" s="41"/>
+      <c r="V43" s="41"/>
+      <c r="W43" s="41"/>
+      <c r="X43" s="41"/>
+      <c r="Y43" s="41"/>
+      <c r="Z43" s="41"/>
+    </row>
+    <row r="44" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="41"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="41"/>
+      <c r="O44" s="41"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="41"/>
+      <c r="S44" s="41"/>
+      <c r="T44" s="41"/>
+      <c r="U44" s="41"/>
+      <c r="V44" s="41"/>
+      <c r="W44" s="41"/>
+      <c r="X44" s="41"/>
+      <c r="Y44" s="41"/>
+      <c r="Z44" s="41"/>
+    </row>
+    <row r="45" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="41"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="41"/>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="41"/>
+      <c r="R45" s="41"/>
+      <c r="S45" s="41"/>
+      <c r="T45" s="41"/>
+      <c r="U45" s="41"/>
+      <c r="V45" s="41"/>
+      <c r="W45" s="41"/>
+      <c r="X45" s="41"/>
+      <c r="Y45" s="41"/>
+      <c r="Z45" s="41"/>
+    </row>
+    <row r="46" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="41"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="41"/>
+      <c r="P46" s="41"/>
+      <c r="Q46" s="41"/>
+      <c r="R46" s="41"/>
+      <c r="S46" s="41"/>
+      <c r="T46" s="41"/>
+      <c r="U46" s="41"/>
+      <c r="V46" s="41"/>
+      <c r="W46" s="41"/>
+      <c r="X46" s="41"/>
+      <c r="Y46" s="41"/>
+      <c r="Z46" s="41"/>
+    </row>
+    <row r="47" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="41"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
+      <c r="O47" s="41"/>
+      <c r="P47" s="41"/>
+      <c r="Q47" s="41"/>
+      <c r="R47" s="41"/>
+      <c r="S47" s="41"/>
+      <c r="T47" s="41"/>
+      <c r="U47" s="41"/>
+      <c r="V47" s="41"/>
+      <c r="W47" s="41"/>
+      <c r="X47" s="41"/>
+      <c r="Y47" s="41"/>
+      <c r="Z47" s="41"/>
+    </row>
+    <row r="48" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="41"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="41"/>
+      <c r="O48" s="41"/>
+      <c r="P48" s="41"/>
+      <c r="Q48" s="41"/>
+      <c r="R48" s="41"/>
+      <c r="S48" s="41"/>
+      <c r="T48" s="41"/>
+      <c r="U48" s="41"/>
+      <c r="V48" s="41"/>
+      <c r="W48" s="41"/>
+      <c r="X48" s="41"/>
+      <c r="Y48" s="41"/>
+      <c r="Z48" s="41"/>
+    </row>
+    <row r="49" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="41"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="41"/>
+      <c r="O49" s="41"/>
+      <c r="P49" s="41"/>
+      <c r="Q49" s="41"/>
+      <c r="R49" s="41"/>
+      <c r="S49" s="41"/>
+      <c r="T49" s="41"/>
+      <c r="U49" s="41"/>
+      <c r="V49" s="41"/>
+      <c r="W49" s="41"/>
+      <c r="X49" s="41"/>
+      <c r="Y49" s="41"/>
+      <c r="Z49" s="41"/>
+    </row>
+    <row r="50" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="41"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41"/>
+      <c r="N50" s="41"/>
+      <c r="O50" s="41"/>
+      <c r="P50" s="41"/>
+      <c r="Q50" s="41"/>
+      <c r="R50" s="41"/>
+      <c r="S50" s="41"/>
+      <c r="T50" s="41"/>
+      <c r="U50" s="41"/>
+      <c r="V50" s="41"/>
+      <c r="W50" s="41"/>
+      <c r="X50" s="41"/>
+      <c r="Y50" s="41"/>
+      <c r="Z50" s="41"/>
+    </row>
+    <row r="51" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="41"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41"/>
+      <c r="N51" s="41"/>
+      <c r="O51" s="41"/>
+      <c r="P51" s="41"/>
+      <c r="Q51" s="41"/>
+      <c r="R51" s="41"/>
+      <c r="S51" s="41"/>
+      <c r="T51" s="41"/>
+      <c r="U51" s="41"/>
+      <c r="V51" s="41"/>
+      <c r="W51" s="41"/>
+      <c r="X51" s="41"/>
+      <c r="Y51" s="41"/>
+      <c r="Z51" s="41"/>
+    </row>
+    <row r="52" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="41"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="41"/>
+      <c r="N52" s="41"/>
+      <c r="O52" s="41"/>
+      <c r="P52" s="41"/>
+      <c r="Q52" s="41"/>
+      <c r="R52" s="41"/>
+      <c r="S52" s="41"/>
+      <c r="T52" s="41"/>
+      <c r="U52" s="41"/>
+      <c r="V52" s="41"/>
+      <c r="W52" s="41"/>
+      <c r="X52" s="41"/>
+      <c r="Y52" s="41"/>
+      <c r="Z52" s="41"/>
+    </row>
+    <row r="53" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="41"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="41"/>
+      <c r="N53" s="41"/>
+      <c r="O53" s="41"/>
+      <c r="P53" s="41"/>
+      <c r="Q53" s="41"/>
+      <c r="R53" s="41"/>
+      <c r="S53" s="41"/>
+      <c r="T53" s="41"/>
+      <c r="U53" s="41"/>
+      <c r="V53" s="41"/>
+      <c r="W53" s="41"/>
+      <c r="X53" s="41"/>
+      <c r="Y53" s="41"/>
+      <c r="Z53" s="41"/>
+    </row>
+    <row r="54" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="41"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="41"/>
+      <c r="M54" s="41"/>
+      <c r="N54" s="41"/>
+      <c r="O54" s="41"/>
+      <c r="P54" s="41"/>
+      <c r="Q54" s="41"/>
+      <c r="R54" s="41"/>
+      <c r="S54" s="41"/>
+      <c r="T54" s="41"/>
+      <c r="U54" s="41"/>
+      <c r="V54" s="41"/>
+      <c r="W54" s="41"/>
+      <c r="X54" s="41"/>
+      <c r="Y54" s="41"/>
+      <c r="Z54" s="41"/>
+    </row>
+    <row r="55" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="41"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="41"/>
+      <c r="N55" s="41"/>
+      <c r="O55" s="41"/>
+      <c r="P55" s="41"/>
+      <c r="Q55" s="41"/>
+      <c r="R55" s="41"/>
+      <c r="S55" s="41"/>
+      <c r="T55" s="41"/>
+      <c r="U55" s="41"/>
+      <c r="V55" s="41"/>
+      <c r="W55" s="41"/>
+      <c r="X55" s="41"/>
+      <c r="Y55" s="41"/>
+      <c r="Z55" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
     <mergeCell ref="Y3:Y4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -1498,10 +2759,16 @@
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:M2"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="W3:W4"/>
     <mergeCell ref="X3:X4"/>
@@ -1509,11 +2776,6 @@
     <mergeCell ref="V3:V4"/>
     <mergeCell ref="S2:V2"/>
     <mergeCell ref="S3:T3"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:M2"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.19685039370078741" bottom="0.59055118110236227" header="0" footer="0"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
@@ -1521,10 +2783,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -1570,7 +2828,20 @@
 </spe:Receivers>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E758A0F93049BE4CAD441F10C0D8186D" ma:contentTypeVersion="5" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fb340e34ecc5d059b634082484788e96">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="576ce185-3b2e-4f75-8b7c-efeb82226bea" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v3/fields" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae5cd419a40dc0c21009e0c04d2bd83e" ns2:_="" ns3:_="">
     <xsd:import namespace="576ce185-3b2e-4f75-8b7c-efeb82226bea"/>
@@ -1762,16 +3033,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Version xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <_DCDateModified xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <_Status xmlns="http://schemas.microsoft.com/sharepoint/v3/fields">Nicht begonnen</_Status>
+    <_Revision xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <_DCDateCreated xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FA61470-DD61-4999-8627-225AC049B66F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{947F1741-2986-4B63-8B5C-D0468C671233}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
@@ -1779,15 +3061,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FA61470-DD61-4999-8627-225AC049B66F}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C5838C-81AB-4B9A-B282-4E4B57DAFB8B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD45C59E-C13E-4B92-9551-AE1790848EFA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1806,10 +3088,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C5838C-81AB-4B9A-B282-4E4B57DAFB8B}">
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97EB0475-077E-4E0F-8C93-278E6EB69D4A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="576ce185-3b2e-4f75-8b7c-efeb82226bea"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>